--- a/data/536/BIDN/SEKI/old/EXDB.xlsx
+++ b/data/536/BIDN/SEKI/old/EXDB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="116">
   <si>
     <t xml:space="preserve">EXTERNAL DEBT </t>
   </si>
@@ -376,10 +376,10 @@
     <t>Q4*</t>
   </si>
   <si>
-    <t>Q2**</t>
+    <t>Q3**</t>
   </si>
   <si>
-    <t xml:space="preserve"> Last update   : 16/08/2021</t>
+    <t xml:space="preserve"> Last update   : 15/11/2021</t>
   </si>
 </sst>
 </file>
@@ -1653,10 +1653,10 @@
     <xf numFmtId="0" fontId="38" fillId="36" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="36" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4092,13 +4092,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BQ117"/>
+  <dimension ref="B1:BR117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="6" topLeftCell="BP7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="6" topLeftCell="BQ7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BW13" sqref="BW13"/>
+      <selection pane="bottomRight" activeCell="BU12" sqref="BU12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4129,11 +4129,11 @@
     <col min="40" max="42" width="12.7109375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="43" max="43" width="12.7109375" style="11" customWidth="1" collapsed="1"/>
     <col min="44" max="58" width="14.7109375" style="11" customWidth="1"/>
-    <col min="59" max="69" width="15.7109375" style="11" customWidth="1"/>
-    <col min="70" max="16384" width="9.140625" style="11"/>
+    <col min="59" max="70" width="15.7109375" style="11" customWidth="1"/>
+    <col min="71" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:69" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:70" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="113" t="s">
         <v>105</v>
       </c>
@@ -4146,7 +4146,7 @@
       <c r="I1" s="113"/>
       <c r="J1" s="106"/>
     </row>
-    <row r="2" spans="2:69" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:70" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="113" t="s">
         <v>106</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="Q2" s="105"/>
       <c r="R2" s="105"/>
     </row>
-    <row r="3" spans="2:69" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:70" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="132" t="s">
         <v>0</v>
       </c>
@@ -4179,8 +4179,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:69" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:69" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:70" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:70" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="119" t="s">
         <v>1</v>
       </c>
@@ -4280,9 +4280,9 @@
       <c r="BD5" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="BE5" s="130"/>
-      <c r="BF5" s="130"/>
-      <c r="BG5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="130"/>
       <c r="BH5" s="131" t="s">
         <v>112</v>
       </c>
@@ -4292,15 +4292,16 @@
       <c r="BL5" s="128">
         <v>2020</v>
       </c>
-      <c r="BM5" s="130"/>
-      <c r="BN5" s="130"/>
-      <c r="BO5" s="130"/>
+      <c r="BM5" s="129"/>
+      <c r="BN5" s="129"/>
+      <c r="BO5" s="129"/>
       <c r="BP5" s="128">
         <v>2021</v>
       </c>
       <c r="BQ5" s="129"/>
-    </row>
-    <row r="6" spans="2:69" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BR5" s="130"/>
+    </row>
+    <row r="6" spans="2:70" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="121"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
@@ -4479,7 +4480,7 @@
         <v>2</v>
       </c>
       <c r="BM6" s="12" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="BN6" s="12" t="s">
         <v>110</v>
@@ -4491,10 +4492,13 @@
         <v>108</v>
       </c>
       <c r="BQ6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR6" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -4563,8 +4567,9 @@
       <c r="BO7" s="17"/>
       <c r="BP7" s="17"/>
       <c r="BQ7" s="17"/>
-    </row>
-    <row r="8" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR7" s="17"/>
+    </row>
+    <row r="8" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
@@ -4754,13 +4759,16 @@
         <v>206375.01632743442</v>
       </c>
       <c r="BP8" s="82">
-        <v>203176.42590506436</v>
+        <v>203176.4259123235</v>
       </c>
       <c r="BQ8" s="82">
         <v>205029.26452663651</v>
       </c>
-    </row>
-    <row r="9" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR8" s="82">
+        <v>205538.44154826252</v>
+      </c>
+    </row>
+    <row r="9" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="11" t="s">
         <v>37</v>
@@ -4956,8 +4964,11 @@
       <c r="BQ9" s="82">
         <v>152.82230779810206</v>
       </c>
-    </row>
-    <row r="10" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR9" s="82">
+        <v>150.863557014175</v>
+      </c>
+    </row>
+    <row r="10" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="D10" s="11" t="s">
         <v>39</v>
@@ -5152,8 +5163,11 @@
       <c r="BQ10" s="86">
         <v>152.82230779810206</v>
       </c>
-    </row>
-    <row r="11" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR10" s="86">
+        <v>150.863557014175</v>
+      </c>
+    </row>
+    <row r="11" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
       <c r="D11" s="11" t="s">
         <v>41</v>
@@ -5348,8 +5362,11 @@
       <c r="BQ11" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR11" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="D12" s="11" t="s">
         <v>43</v>
@@ -5544,8 +5561,11 @@
       <c r="BQ12" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR12" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="D13" s="11" t="s">
         <v>45</v>
@@ -5740,8 +5760,11 @@
       <c r="BQ13" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR13" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="11" t="s">
         <v>47</v>
@@ -5931,13 +5954,16 @@
         <v>206257.13118032346</v>
       </c>
       <c r="BP14" s="82">
-        <v>202969.92617956339</v>
+        <v>202969.92618682253</v>
       </c>
       <c r="BQ14" s="82">
         <v>204876.44221883841</v>
       </c>
-    </row>
-    <row r="15" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR14" s="82">
+        <v>205387.57799124834</v>
+      </c>
+    </row>
+    <row r="15" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="D15" s="11" t="s">
         <v>49</v>
@@ -6131,8 +6157,11 @@
       <c r="BQ15" s="86">
         <v>147783.96569110159</v>
       </c>
-    </row>
-    <row r="16" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR15" s="86">
+        <v>148734.37903536845</v>
+      </c>
+    </row>
+    <row r="16" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B16" s="15"/>
       <c r="D16" s="11" t="s">
         <v>51</v>
@@ -6321,13 +6350,16 @@
         <v>59620.150272134859</v>
       </c>
       <c r="BP16" s="86">
-        <v>58061.961861693489</v>
+        <v>58061.961868952625</v>
       </c>
       <c r="BQ16" s="86">
         <v>57092.476527736813</v>
       </c>
-    </row>
-    <row r="17" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR16" s="86">
+        <v>56653.198955879881</v>
+      </c>
+    </row>
+    <row r="17" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B17" s="15"/>
       <c r="D17" s="11" t="s">
         <v>52</v>
@@ -6521,8 +6553,11 @@
       <c r="BQ17" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR17" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B18" s="15"/>
       <c r="D18" s="11" t="s">
         <v>53</v>
@@ -6716,8 +6751,11 @@
       <c r="BQ18" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR18" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="H19" s="81" t="s">
         <v>104</v>
@@ -6797,8 +6835,9 @@
       <c r="BO19" s="86"/>
       <c r="BP19" s="86"/>
       <c r="BQ19" s="86"/>
-    </row>
-    <row r="20" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR19" s="86"/>
+    </row>
+    <row r="20" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>54</v>
       </c>
@@ -6994,8 +7033,11 @@
       <c r="BQ20" s="82">
         <v>2836.3288863752296</v>
       </c>
-    </row>
-    <row r="21" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR20" s="82">
+        <v>9107.7884162636074</v>
+      </c>
+    </row>
+    <row r="21" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="11" t="s">
         <v>56</v>
@@ -7190,8 +7232,11 @@
       <c r="BQ21" s="82">
         <v>10.658749575229681</v>
       </c>
-    </row>
-    <row r="22" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR21" s="82">
+        <v>10.637624343605893</v>
+      </c>
+    </row>
+    <row r="22" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B22" s="15"/>
       <c r="D22" s="11" t="s">
         <v>57</v>
@@ -7385,8 +7430,11 @@
       <c r="BQ22" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR22" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>
       <c r="D23" s="11" t="s">
         <v>58</v>
@@ -7580,8 +7628,11 @@
       <c r="BQ23" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR23" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
       <c r="D24" s="11" t="s">
         <v>59</v>
@@ -7775,8 +7826,11 @@
       <c r="BQ24" s="86">
         <v>10.658749575229681</v>
       </c>
-    </row>
-    <row r="25" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR24" s="86">
+        <v>10.637624343605893</v>
+      </c>
+    </row>
+    <row r="25" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B25" s="15"/>
       <c r="D25" s="11" t="s">
         <v>61</v>
@@ -7970,8 +8024,11 @@
       <c r="BQ25" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR25" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
       <c r="C26" s="11" t="s">
         <v>62</v>
@@ -8166,8 +8223,11 @@
       <c r="BQ26" s="82">
         <v>2825.6701367999999</v>
       </c>
-    </row>
-    <row r="27" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR26" s="82">
+        <v>9097.1507919200012</v>
+      </c>
+    </row>
+    <row r="27" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="D27" s="11" t="s">
         <v>63</v>
@@ -8361,8 +8421,11 @@
       <c r="BQ27" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR27" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B28" s="15"/>
       <c r="D28" s="11" t="s">
         <v>64</v>
@@ -8556,8 +8619,11 @@
       <c r="BQ28" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR28" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B29" s="15"/>
       <c r="D29" s="11" t="s">
         <v>65</v>
@@ -8751,8 +8817,11 @@
       <c r="BQ29" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR29" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B30" s="15"/>
       <c r="E30" s="11" t="s">
         <v>46</v>
@@ -8943,8 +9012,11 @@
       <c r="BQ30" s="86">
         <v>2825.6701367999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR30" s="86">
+        <v>9097.1507919200012</v>
+      </c>
+    </row>
+    <row r="31" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B31" s="15"/>
       <c r="H31" s="81" t="s">
         <v>104</v>
@@ -9024,8 +9096,9 @@
       <c r="BO31" s="86"/>
       <c r="BP31" s="86"/>
       <c r="BQ31" s="86"/>
-    </row>
-    <row r="32" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR31" s="86"/>
+    </row>
+    <row r="32" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
         <v>66</v>
       </c>
@@ -9202,25 +9275,28 @@
         <v>35244.797249899166</v>
       </c>
       <c r="BL32" s="82">
-        <v>35540.840188482107</v>
+        <v>35580.399415178064</v>
       </c>
       <c r="BM32" s="82">
-        <v>34731.511233632569</v>
+        <v>34776.75535909897</v>
       </c>
       <c r="BN32" s="82">
-        <v>33626.260719857128</v>
+        <v>33671.236698403583</v>
       </c>
       <c r="BO32" s="82">
-        <v>33555.060807713424</v>
+        <v>33600.331967050151</v>
       </c>
       <c r="BP32" s="82">
-        <v>33997.868110686846</v>
+        <v>34042.952218129518</v>
       </c>
       <c r="BQ32" s="82">
-        <v>33216.693692108311</v>
-      </c>
-    </row>
-    <row r="33" spans="2:69" x14ac:dyDescent="0.2">
+        <v>33217.025759777061</v>
+      </c>
+      <c r="BR32" s="82">
+        <v>34005.654343178088</v>
+      </c>
+    </row>
+    <row r="33" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B33" s="15"/>
       <c r="C33" s="11" t="s">
         <v>68</v>
@@ -9404,19 +9480,22 @@
         <v>17007.762319512978</v>
       </c>
       <c r="BN33" s="82">
-        <v>16647.993681668311</v>
+        <v>16647.993681668308</v>
       </c>
       <c r="BO33" s="82">
-        <v>17301.195761151106</v>
+        <v>17301.195761151092</v>
       </c>
       <c r="BP33" s="82">
-        <v>17630.010658483694</v>
+        <v>17630.085398483694</v>
       </c>
       <c r="BQ33" s="82">
-        <v>17285.771326488655</v>
-      </c>
-    </row>
-    <row r="34" spans="2:69" x14ac:dyDescent="0.2">
+        <v>17240.899541091356</v>
+      </c>
+      <c r="BR33" s="82">
+        <v>17914.980247770614</v>
+      </c>
+    </row>
+    <row r="34" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B34" s="15"/>
       <c r="D34" s="11" t="s">
         <v>69</v>
@@ -9593,25 +9672,28 @@
         <v>2619.8591223386998</v>
       </c>
       <c r="BL34" s="86">
-        <v>2146.7926435023501</v>
+        <v>2146.7926435023505</v>
       </c>
       <c r="BM34" s="86">
-        <v>1787.5222508109548</v>
+        <v>1787.5222508109541</v>
       </c>
       <c r="BN34" s="86">
-        <v>1637.5214326942005</v>
+        <v>1637.5214326941991</v>
       </c>
       <c r="BO34" s="86">
-        <v>1846.8111574986997</v>
+        <v>1846.8111574987008</v>
       </c>
       <c r="BP34" s="86">
-        <v>2087.4009148880004</v>
+        <v>2087.4756548880005</v>
       </c>
       <c r="BQ34" s="86">
-        <v>2277.6978066901006</v>
-      </c>
-    </row>
-    <row r="35" spans="2:69" x14ac:dyDescent="0.2">
+        <v>2232.8260212928008</v>
+      </c>
+      <c r="BR34" s="86">
+        <v>2144.1680507164001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B35" s="15"/>
       <c r="D35" s="11" t="s">
         <v>70</v>
@@ -9788,7 +9870,7 @@
         <v>747.96923591999996</v>
       </c>
       <c r="BL35" s="86">
-        <v>511.10131881000001</v>
+        <v>511.10131880999995</v>
       </c>
       <c r="BM35" s="86">
         <v>491.87795932000006</v>
@@ -9803,10 +9885,13 @@
         <v>727.32056098740009</v>
       </c>
       <c r="BQ35" s="86">
-        <v>588.94883704340009</v>
-      </c>
-    </row>
-    <row r="36" spans="2:69" x14ac:dyDescent="0.2">
+        <v>588.94883704339998</v>
+      </c>
+      <c r="BR35" s="86">
+        <v>553.65317078659996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B36" s="15"/>
       <c r="D36" s="11" t="s">
         <v>71</v>
@@ -9992,7 +10077,7 @@
         <v>13019.449815869688</v>
       </c>
       <c r="BO36" s="86">
-        <v>12923.1962634953</v>
+        <v>12923.196263495285</v>
       </c>
       <c r="BP36" s="86">
         <v>13418.901863607534</v>
@@ -10000,8 +10085,11 @@
       <c r="BQ36" s="86">
         <v>12972.235080580664</v>
       </c>
-    </row>
-    <row r="37" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR36" s="86">
+        <v>13928.171019760002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="D37" s="11" t="s">
         <v>72</v>
@@ -10195,8 +10283,11 @@
       <c r="BQ37" s="86">
         <v>1446.8896021744911</v>
       </c>
-    </row>
-    <row r="38" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR37" s="86">
+        <v>1288.9880065076097</v>
+      </c>
+    </row>
+    <row r="38" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B38" s="15"/>
       <c r="C38" s="11" t="s">
         <v>73</v>
@@ -10374,25 +10465,28 @@
         <v>17111.871122720444</v>
       </c>
       <c r="BL38" s="82">
-        <v>17341.146470607015</v>
+        <v>17380.705697302972</v>
       </c>
       <c r="BM38" s="82">
-        <v>17723.748914119595</v>
+        <v>17768.993039585992</v>
       </c>
       <c r="BN38" s="82">
-        <v>16978.267038188817</v>
+        <v>17023.243016735276</v>
       </c>
       <c r="BO38" s="82">
-        <v>16253.865046562318</v>
+        <v>16299.136205899056</v>
       </c>
       <c r="BP38" s="82">
-        <v>16367.857452203152</v>
+        <v>16412.866819645827</v>
       </c>
       <c r="BQ38" s="82">
-        <v>15930.922365619657</v>
-      </c>
-    </row>
-    <row r="39" spans="2:69" x14ac:dyDescent="0.2">
+        <v>15976.126218685707</v>
+      </c>
+      <c r="BR38" s="82">
+        <v>16090.674095407472</v>
+      </c>
+    </row>
+    <row r="39" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B39" s="15"/>
       <c r="D39" s="11" t="s">
         <v>74</v>
@@ -10569,25 +10663,28 @@
         <v>3445.4760913996438</v>
       </c>
       <c r="BL39" s="86">
-        <v>3612.8205347387152</v>
+        <v>3657.5740006294718</v>
       </c>
       <c r="BM39" s="86">
-        <v>4104.7378832628929</v>
+        <v>4150.1776818925891</v>
       </c>
       <c r="BN39" s="86">
-        <v>4033.4777419188163</v>
+        <v>4078.6929182158769</v>
       </c>
       <c r="BO39" s="86">
-        <v>4741.9738446652173</v>
+        <v>4787.4896172579574</v>
       </c>
       <c r="BP39" s="86">
-        <v>5226.3986533202551</v>
+        <v>5271.674485770629</v>
       </c>
       <c r="BQ39" s="86">
-        <v>5403.655552644359</v>
-      </c>
-    </row>
-    <row r="40" spans="2:69" x14ac:dyDescent="0.2">
+        <v>5449.1260272581076</v>
+      </c>
+      <c r="BR39" s="86">
+        <v>5891.0103515055716</v>
+      </c>
+    </row>
+    <row r="40" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B40" s="15"/>
       <c r="D40" s="11" t="s">
         <v>75</v>
@@ -10764,25 +10861,28 @@
         <v>13663.0671535905</v>
       </c>
       <c r="BL40" s="86">
-        <v>13725.064395858401</v>
+        <v>13719.870156663601</v>
       </c>
       <c r="BM40" s="86">
-        <v>13615.891605561103</v>
+        <v>13615.695932397801</v>
       </c>
       <c r="BN40" s="86">
-        <v>12943.853359500799</v>
+        <v>12943.614161750198</v>
       </c>
       <c r="BO40" s="86">
-        <v>11510.881627598301</v>
+        <v>11510.637014342299</v>
       </c>
       <c r="BP40" s="86">
-        <v>11140.445228990096</v>
+        <v>11140.1787639824</v>
       </c>
       <c r="BQ40" s="86">
-        <v>10526.606456934198</v>
-      </c>
-    </row>
-    <row r="41" spans="2:69" x14ac:dyDescent="0.2">
+        <v>10526.3398353865</v>
+      </c>
+      <c r="BR40" s="86">
+        <v>10198.9458025316</v>
+      </c>
+    </row>
+    <row r="41" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B41" s="15"/>
       <c r="D41" s="11" t="s">
         <v>76</v>
@@ -10976,8 +11076,11 @@
       <c r="BQ41" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR41" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
       <c r="D42" s="11" t="s">
         <v>77</v>
@@ -11154,25 +11257,28 @@
         <v>3.3278777303</v>
       </c>
       <c r="BL42" s="110">
-        <v>3.2615400099000005</v>
+        <v>3.2615400099000009</v>
       </c>
       <c r="BM42" s="110">
-        <v>3.1194252955999997</v>
+        <v>3.1194252955999993</v>
       </c>
       <c r="BN42" s="110">
-        <v>0.93593676919999991</v>
+        <v>0.93593676920000013</v>
       </c>
       <c r="BO42" s="110">
         <v>1.0095742988</v>
       </c>
       <c r="BP42" s="110">
-        <v>1.0135698928000001</v>
+        <v>1.0135698927999999</v>
       </c>
       <c r="BQ42" s="110">
-        <v>0.6603560410999999</v>
-      </c>
-    </row>
-    <row r="43" spans="2:69" x14ac:dyDescent="0.2">
+        <v>0.66035604110000012</v>
+      </c>
+      <c r="BR42" s="110">
+        <v>0.71794137029999994</v>
+      </c>
+    </row>
+    <row r="43" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B43" s="15"/>
       <c r="H43" s="81" t="s">
         <v>104</v>
@@ -11252,8 +11358,9 @@
       <c r="BO43" s="86"/>
       <c r="BP43" s="86"/>
       <c r="BQ43" s="86"/>
-    </row>
-    <row r="44" spans="2:69" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="BR43" s="86"/>
+    </row>
+    <row r="44" spans="2:70" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
         <v>78</v>
       </c>
@@ -11431,25 +11538,28 @@
         <v>165445.41477022556</v>
       </c>
       <c r="BL44" s="82">
-        <v>167967.13979365316</v>
+        <v>168349.93022500377</v>
       </c>
       <c r="BM44" s="82">
-        <v>173427.64992573572</v>
+        <v>173886.48725972301</v>
       </c>
       <c r="BN44" s="82">
-        <v>173859.18411986186</v>
+        <v>174356.12214286157</v>
       </c>
       <c r="BO44" s="82">
-        <v>173632.78596373892</v>
+        <v>174186.41999494206</v>
       </c>
       <c r="BP44" s="82">
-        <v>174819.62555699633</v>
+        <v>175439.52363612669</v>
       </c>
       <c r="BQ44" s="82">
-        <v>174096.96784106464</v>
-      </c>
-    </row>
-    <row r="45" spans="2:69" x14ac:dyDescent="0.2">
+        <v>174843.8939902666</v>
+      </c>
+      <c r="BR44" s="82">
+        <v>174465.93573679935</v>
+      </c>
+    </row>
+    <row r="45" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B45" s="15"/>
       <c r="C45" s="11" t="s">
         <v>80</v>
@@ -11627,25 +11737,28 @@
         <v>25010.789268324002</v>
       </c>
       <c r="BL45" s="82">
-        <v>25192.571940980131</v>
+        <v>25136.629411799539</v>
       </c>
       <c r="BM45" s="82">
-        <v>26199.391944799383</v>
+        <v>26188.978634685984</v>
       </c>
       <c r="BN45" s="82">
-        <v>26397.557951191011</v>
+        <v>26413.431982592992</v>
       </c>
       <c r="BO45" s="82">
-        <v>26279.035066992208</v>
+        <v>26322.250379015899</v>
       </c>
       <c r="BP45" s="82">
-        <v>27397.254703434206</v>
+        <v>27651.391926283104</v>
       </c>
       <c r="BQ45" s="82">
-        <v>30996.534633242896</v>
-      </c>
-    </row>
-    <row r="46" spans="2:69" x14ac:dyDescent="0.2">
+        <v>30632.063721625702</v>
+      </c>
+      <c r="BR45" s="82">
+        <v>31964.0082732136</v>
+      </c>
+    </row>
+    <row r="46" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B46" s="15"/>
       <c r="D46" s="11" t="s">
         <v>81</v>
@@ -11825,22 +11938,25 @@
         <v>1057.3175518020398</v>
       </c>
       <c r="BM46" s="86">
-        <v>1047.4509548746842</v>
+        <v>1047.4509548746839</v>
       </c>
       <c r="BN46" s="86">
-        <v>1027.2523160396001</v>
+        <v>1031.2928375572003</v>
       </c>
       <c r="BO46" s="86">
-        <v>674.3476208761</v>
+        <v>676.72596299650024</v>
       </c>
       <c r="BP46" s="86">
-        <v>662.38347206079993</v>
+        <v>747.12685526149949</v>
       </c>
       <c r="BQ46" s="86">
-        <v>880.41359022539996</v>
-      </c>
-    </row>
-    <row r="47" spans="2:69" x14ac:dyDescent="0.2">
+        <v>727.24267687010013</v>
+      </c>
+      <c r="BR46" s="86">
+        <v>802.18475974720036</v>
+      </c>
+    </row>
+    <row r="47" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="D47" s="11" t="s">
         <v>82</v>
@@ -12017,25 +12133,28 @@
         <v>10009.171209736896</v>
       </c>
       <c r="BL47" s="86">
-        <v>10484.546528186898</v>
+        <v>10500.291875726898</v>
       </c>
       <c r="BM47" s="86">
-        <v>12391.2531362795</v>
+        <v>12455.738902179502</v>
       </c>
       <c r="BN47" s="86">
-        <v>13253.635518953104</v>
+        <v>13341.782444334396</v>
       </c>
       <c r="BO47" s="86">
-        <v>13261.054709399903</v>
+        <v>13392.567470207798</v>
       </c>
       <c r="BP47" s="86">
-        <v>13045.575161917401</v>
+        <v>13296.701487194901</v>
       </c>
       <c r="BQ47" s="86">
-        <v>14452.431237701201</v>
-      </c>
-    </row>
-    <row r="48" spans="2:69" x14ac:dyDescent="0.2">
+        <v>14559.534586671802</v>
+      </c>
+      <c r="BR47" s="86">
+        <v>14509.7416259601</v>
+      </c>
+    </row>
+    <row r="48" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="D48" s="11" t="s">
         <v>83</v>
@@ -12229,8 +12348,11 @@
       <c r="BQ48" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR48" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="D49" s="11" t="s">
         <v>84</v>
@@ -12407,25 +12529,28 @@
         <v>13240.147226298899</v>
       </c>
       <c r="BL49" s="86">
-        <v>12374.664632139393</v>
+        <v>12305.9580037091</v>
       </c>
       <c r="BM49" s="86">
-        <v>11502.476169196798</v>
+        <v>11431.239996423597</v>
       </c>
       <c r="BN49" s="86">
-        <v>10907.711861193404</v>
+        <v>10836.329759946495</v>
       </c>
       <c r="BO49" s="86">
-        <v>10966.697620281004</v>
+        <v>10881.170918420699</v>
       </c>
       <c r="BP49" s="86">
-        <v>12251.297215871606</v>
+        <v>12176.073275834602</v>
       </c>
       <c r="BQ49" s="86">
-        <v>14182.748282731898</v>
-      </c>
-    </row>
-    <row r="50" spans="2:69" x14ac:dyDescent="0.2">
+        <v>13857.503413202699</v>
+      </c>
+      <c r="BR49" s="86">
+        <v>14315.009222462699</v>
+      </c>
+    </row>
+    <row r="50" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="D50" s="11" t="s">
         <v>85</v>
@@ -12602,25 +12727,28 @@
         <v>767.98927169090655</v>
       </c>
       <c r="BL50" s="86">
-        <v>1276.0432288517995</v>
+        <v>1273.0619805615008</v>
       </c>
       <c r="BM50" s="86">
-        <v>1258.2116844483996</v>
+        <v>1254.5487812081999</v>
       </c>
       <c r="BN50" s="86">
-        <v>1208.9582550049004</v>
+        <v>1204.0269407548997</v>
       </c>
       <c r="BO50" s="86">
-        <v>1376.9351164351999</v>
+        <v>1371.7860273908993</v>
       </c>
       <c r="BP50" s="86">
-        <v>1437.9988535844004</v>
+        <v>1431.4903079920998</v>
       </c>
       <c r="BQ50" s="86">
-        <v>1480.9415225844002</v>
-      </c>
-    </row>
-    <row r="51" spans="2:69" x14ac:dyDescent="0.2">
+        <v>1487.7830448811001</v>
+      </c>
+      <c r="BR50" s="86">
+        <v>2337.0726650435995</v>
+      </c>
+    </row>
+    <row r="51" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="C51" s="11" t="s">
         <v>86</v>
@@ -12798,25 +12926,28 @@
         <v>140434.62550190155</v>
       </c>
       <c r="BL51" s="82">
-        <v>142774.56785267303</v>
+        <v>143213.30081320423</v>
       </c>
       <c r="BM51" s="82">
-        <v>147228.25798093632</v>
+        <v>147697.50862503704</v>
       </c>
       <c r="BN51" s="82">
-        <v>147461.62616867086</v>
+        <v>147942.69016026857</v>
       </c>
       <c r="BO51" s="82">
-        <v>147353.7508967467</v>
+        <v>147864.16961592616</v>
       </c>
       <c r="BP51" s="82">
-        <v>147422.37085356211</v>
+        <v>147788.13170984358</v>
       </c>
       <c r="BQ51" s="82">
-        <v>143100.43320782174</v>
-      </c>
-    </row>
-    <row r="52" spans="2:69" x14ac:dyDescent="0.2">
+        <v>144211.83026864089</v>
+      </c>
+      <c r="BR51" s="82">
+        <v>142501.92746358574</v>
+      </c>
+    </row>
+    <row r="52" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="D52" s="11" t="s">
         <v>87</v>
@@ -12993,25 +13124,28 @@
         <v>39325.114768972984</v>
       </c>
       <c r="BL52" s="86">
-        <v>41961.175350191457</v>
+        <v>42312.012400097665</v>
       </c>
       <c r="BM52" s="86">
-        <v>46603.77986795274</v>
+        <v>46954.737775937647</v>
       </c>
       <c r="BN52" s="86">
-        <v>46365.900171150395</v>
+        <v>46717.778003299565</v>
       </c>
       <c r="BO52" s="86">
-        <v>46978.038051040094</v>
+        <v>47331.665995353134</v>
       </c>
       <c r="BP52" s="86">
-        <v>49006.709106978444</v>
+        <v>49129.207362867957</v>
       </c>
       <c r="BQ52" s="86">
-        <v>50187.581266867557</v>
-      </c>
-    </row>
-    <row r="53" spans="2:69" x14ac:dyDescent="0.2">
+        <v>50573.811286183154</v>
+      </c>
+      <c r="BR52" s="86">
+        <v>50201.474578762056</v>
+      </c>
+    </row>
+    <row r="53" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="D53" s="11" t="s">
         <v>88</v>
@@ -13188,25 +13322,28 @@
         <v>99967.440954592181</v>
       </c>
       <c r="BL53" s="86">
-        <v>99529.762773616094</v>
+        <v>99537.482395476152</v>
       </c>
       <c r="BM53" s="86">
-        <v>99528.573003858299</v>
+        <v>99557.182852327678</v>
       </c>
       <c r="BN53" s="86">
-        <v>100068.52184812297</v>
+        <v>100101.30637071739</v>
       </c>
       <c r="BO53" s="86">
-        <v>99515.297477562097</v>
+        <v>99564.221968860104</v>
       </c>
       <c r="BP53" s="86">
-        <v>97817.871399165684</v>
+        <v>97936.344720350928</v>
       </c>
       <c r="BQ53" s="86">
-        <v>92428.173304323893</v>
-      </c>
-    </row>
-    <row r="54" spans="2:69" x14ac:dyDescent="0.2">
+        <v>93021.038945121327</v>
+      </c>
+      <c r="BR53" s="86">
+        <v>91772.371350243193</v>
+      </c>
+    </row>
+    <row r="54" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="D54" s="11" t="s">
         <v>89</v>
@@ -13400,8 +13537,11 @@
       <c r="BQ54" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR54" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="D55" s="11" t="s">
         <v>90</v>
@@ -13578,25 +13718,28 @@
         <v>463.5065500458</v>
       </c>
       <c r="BL55" s="86">
-        <v>424.50527764430001</v>
+        <v>443.04531255429993</v>
       </c>
       <c r="BM55" s="86">
-        <v>384.22166029099992</v>
+        <v>402.89439530039999</v>
       </c>
       <c r="BN55" s="86">
-        <v>418.60944184140004</v>
+        <v>438.91758407050014</v>
       </c>
       <c r="BO55" s="86">
-        <v>347.08206291609997</v>
+        <v>368.49573228669976</v>
       </c>
       <c r="BP55" s="86">
-        <v>275.16490007089999</v>
+        <v>299.18239429159996</v>
       </c>
       <c r="BQ55" s="86">
-        <v>301.97062573779999</v>
-      </c>
-    </row>
-    <row r="56" spans="2:69" x14ac:dyDescent="0.2">
+        <v>323.82583445220001</v>
+      </c>
+      <c r="BR55" s="86">
+        <v>323.01173802919993</v>
+      </c>
+    </row>
+    <row r="56" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="D56" s="11" t="s">
         <v>91</v>
@@ -13773,25 +13916,28 @@
         <v>678.56322829059343</v>
       </c>
       <c r="BL56" s="86">
-        <v>859.12445122120027</v>
+        <v>920.76070507610007</v>
       </c>
       <c r="BM56" s="86">
-        <v>711.68344883430007</v>
+        <v>782.69360147129976</v>
       </c>
       <c r="BN56" s="86">
-        <v>608.59470755609993</v>
+        <v>684.68820218110011</v>
       </c>
       <c r="BO56" s="86">
-        <v>513.33330522840038</v>
+        <v>599.78591942620005</v>
       </c>
       <c r="BP56" s="86">
-        <v>322.62544734709996</v>
+        <v>423.39723233310002</v>
       </c>
       <c r="BQ56" s="86">
-        <v>182.70801089249997</v>
-      </c>
-    </row>
-    <row r="57" spans="2:69" x14ac:dyDescent="0.2">
+        <v>293.1542028842</v>
+      </c>
+      <c r="BR56" s="86">
+        <v>205.06979655129999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="H57" s="77"/>
       <c r="I57" s="76"/>
@@ -13855,8 +14001,9 @@
       <c r="BO57" s="86"/>
       <c r="BP57" s="86"/>
       <c r="BQ57" s="86"/>
-    </row>
-    <row r="58" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR57" s="86"/>
+    </row>
+    <row r="58" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="H58" s="76"/>
       <c r="I58" s="76"/>
@@ -13920,8 +14067,9 @@
       <c r="BO58" s="86"/>
       <c r="BP58" s="86"/>
       <c r="BQ58" s="86"/>
-    </row>
-    <row r="59" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR58" s="86"/>
+    </row>
+    <row r="59" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B59" s="15" t="s">
         <v>92</v>
       </c>
@@ -14100,25 +14248,28 @@
         <v>403562.63098132057</v>
       </c>
       <c r="BL59" s="82">
-        <v>387263.13504988572</v>
+        <v>387685.48470793222</v>
       </c>
       <c r="BM59" s="82">
-        <v>407445.37556536216</v>
+        <v>407949.4570248159</v>
       </c>
       <c r="BN59" s="82">
-        <v>407653.27346044895</v>
+        <v>408195.18746199511</v>
       </c>
       <c r="BO59" s="82">
-        <v>416433.72957889084</v>
+        <v>417032.63476943068</v>
       </c>
       <c r="BP59" s="82">
-        <v>414817.02969352592</v>
+        <v>415482.01188735804</v>
       </c>
       <c r="BQ59" s="82">
-        <v>415179.25494618469</v>
-      </c>
-    </row>
-    <row r="60" spans="2:69" x14ac:dyDescent="0.2">
+        <v>415926.51316305541</v>
+      </c>
+      <c r="BR59" s="82">
+        <v>423117.82004450355</v>
+      </c>
+    </row>
+    <row r="60" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="H60" s="76"/>
       <c r="I60" s="76"/>
@@ -14182,8 +14333,9 @@
       <c r="BO60" s="86"/>
       <c r="BP60" s="86"/>
       <c r="BQ60" s="86"/>
-    </row>
-    <row r="61" spans="2:69" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="BR60" s="86"/>
+    </row>
+    <row r="61" spans="2:70" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B61" s="26" t="s">
         <v>94</v>
       </c>
@@ -14252,8 +14404,9 @@
       <c r="BO61" s="86"/>
       <c r="BP61" s="86"/>
       <c r="BQ61" s="86"/>
-    </row>
-    <row r="62" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR61" s="86"/>
+    </row>
+    <row r="62" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
       <c r="D62" s="11" t="s">
         <v>96</v>
@@ -14427,25 +14580,28 @@
         <v>7435.5045578702002</v>
       </c>
       <c r="BL62" s="86">
-        <v>7092.1450155254006</v>
+        <v>7092.2646062954</v>
       </c>
       <c r="BM62" s="86">
-        <v>7103.8430214676</v>
+        <v>7103.9626122376003</v>
       </c>
       <c r="BN62" s="86">
-        <v>7122.582252431901</v>
+        <v>7122.7018432019004</v>
       </c>
       <c r="BO62" s="86">
-        <v>7808.4647459939997</v>
+        <v>7808.584336764</v>
       </c>
       <c r="BP62" s="86">
-        <v>8005.5319881459991</v>
+        <v>8005.6615508647001</v>
       </c>
       <c r="BQ62" s="86">
-        <v>7534.3325510262002</v>
-      </c>
-    </row>
-    <row r="63" spans="2:69" x14ac:dyDescent="0.2">
+        <v>7534.5204763759002</v>
+      </c>
+      <c r="BR62" s="86">
+        <v>7166.5085505439019</v>
+      </c>
+    </row>
+    <row r="63" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
       <c r="D63" s="11" t="s">
         <v>97</v>
@@ -14619,25 +14775,28 @@
         <v>35118.189131785293</v>
       </c>
       <c r="BL63" s="86">
-        <v>34500.408642193397</v>
+        <v>34561.109368031597</v>
       </c>
       <c r="BM63" s="86">
-        <v>35484.894865668903</v>
+        <v>35622.672805530194</v>
       </c>
       <c r="BN63" s="86">
-        <v>34891.9286488371</v>
+        <v>35067.221760068598</v>
       </c>
       <c r="BO63" s="86">
-        <v>34077.200936891997</v>
+        <v>34314.314580850594</v>
       </c>
       <c r="BP63" s="86">
-        <v>33360.191525186696</v>
+        <v>33859.20128280569</v>
       </c>
       <c r="BQ63" s="86">
-        <v>34311.501934669002</v>
-      </c>
-    </row>
-    <row r="64" spans="2:69" ht="14.25" x14ac:dyDescent="0.2">
+        <v>34454.103188164299</v>
+      </c>
+      <c r="BR63" s="86">
+        <v>34245.733722804514</v>
+      </c>
+    </row>
+    <row r="64" spans="2:70" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B64" s="27"/>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
@@ -14706,11 +14865,12 @@
       <c r="BO64" s="111"/>
       <c r="BP64" s="111"/>
       <c r="BQ64" s="111"/>
-    </row>
-    <row r="65" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR64" s="111"/>
+    </row>
+    <row r="65" spans="2:70" x14ac:dyDescent="0.2">
       <c r="I65" s="33"/>
     </row>
-    <row r="67" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:70" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="118" t="s">
         <v>115</v>
       </c>
@@ -14735,7 +14895,7 @@
       <c r="BE67" s="112"/>
       <c r="BF67" s="112"/>
     </row>
-    <row r="68" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD68" s="112"/>
       <c r="BE68" s="112"/>
       <c r="BF68" s="112"/>
@@ -14750,8 +14910,9 @@
       <c r="BO68" s="112"/>
       <c r="BP68" s="112"/>
       <c r="BQ68" s="112"/>
-    </row>
-    <row r="69" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR68" s="112"/>
+    </row>
+    <row r="69" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD69" s="112"/>
       <c r="BE69" s="112"/>
       <c r="BF69" s="112"/>
@@ -14766,8 +14927,9 @@
       <c r="BO69" s="112"/>
       <c r="BP69" s="112"/>
       <c r="BQ69" s="112"/>
-    </row>
-    <row r="70" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR69" s="112"/>
+    </row>
+    <row r="70" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD70" s="112"/>
       <c r="BE70" s="112"/>
       <c r="BF70" s="112"/>
@@ -14782,8 +14944,9 @@
       <c r="BO70" s="112"/>
       <c r="BP70" s="112"/>
       <c r="BQ70" s="112"/>
-    </row>
-    <row r="71" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR70" s="112"/>
+    </row>
+    <row r="71" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD71" s="112"/>
       <c r="BE71" s="112"/>
       <c r="BF71" s="112"/>
@@ -14798,8 +14961,9 @@
       <c r="BO71" s="112"/>
       <c r="BP71" s="112"/>
       <c r="BQ71" s="112"/>
-    </row>
-    <row r="72" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR71" s="112"/>
+    </row>
+    <row r="72" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD72" s="112"/>
       <c r="BE72" s="112"/>
       <c r="BF72" s="112"/>
@@ -14814,8 +14978,9 @@
       <c r="BO72" s="112"/>
       <c r="BP72" s="112"/>
       <c r="BQ72" s="112"/>
-    </row>
-    <row r="73" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR72" s="112"/>
+    </row>
+    <row r="73" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD73" s="112"/>
       <c r="BE73" s="112"/>
       <c r="BF73" s="112"/>
@@ -14830,8 +14995,9 @@
       <c r="BO73" s="112"/>
       <c r="BP73" s="112"/>
       <c r="BQ73" s="112"/>
-    </row>
-    <row r="74" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR73" s="112"/>
+    </row>
+    <row r="74" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD74" s="112"/>
       <c r="BE74" s="112"/>
       <c r="BF74" s="112"/>
@@ -14846,8 +15012,9 @@
       <c r="BO74" s="112"/>
       <c r="BP74" s="112"/>
       <c r="BQ74" s="112"/>
-    </row>
-    <row r="75" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR74" s="112"/>
+    </row>
+    <row r="75" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD75" s="112"/>
       <c r="BE75" s="112"/>
       <c r="BF75" s="112"/>
@@ -14862,8 +15029,9 @@
       <c r="BO75" s="112"/>
       <c r="BP75" s="112"/>
       <c r="BQ75" s="112"/>
-    </row>
-    <row r="76" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR75" s="112"/>
+    </row>
+    <row r="76" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD76" s="112"/>
       <c r="BE76" s="112"/>
       <c r="BF76" s="112"/>
@@ -14878,8 +15046,9 @@
       <c r="BO76" s="112"/>
       <c r="BP76" s="112"/>
       <c r="BQ76" s="112"/>
-    </row>
-    <row r="77" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR76" s="112"/>
+    </row>
+    <row r="77" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD77" s="112"/>
       <c r="BE77" s="112"/>
       <c r="BF77" s="112"/>
@@ -14894,8 +15063,9 @@
       <c r="BO77" s="112"/>
       <c r="BP77" s="112"/>
       <c r="BQ77" s="112"/>
-    </row>
-    <row r="78" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR77" s="112"/>
+    </row>
+    <row r="78" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD78" s="112"/>
       <c r="BE78" s="112"/>
       <c r="BF78" s="112"/>
@@ -14910,8 +15080,9 @@
       <c r="BO78" s="112"/>
       <c r="BP78" s="112"/>
       <c r="BQ78" s="112"/>
-    </row>
-    <row r="79" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR78" s="112"/>
+    </row>
+    <row r="79" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD79" s="112"/>
       <c r="BE79" s="112"/>
       <c r="BF79" s="112"/>
@@ -14926,8 +15097,9 @@
       <c r="BO79" s="112"/>
       <c r="BP79" s="112"/>
       <c r="BQ79" s="112"/>
-    </row>
-    <row r="80" spans="2:69" x14ac:dyDescent="0.2">
+      <c r="BR79" s="112"/>
+    </row>
+    <row r="80" spans="2:70" x14ac:dyDescent="0.2">
       <c r="BD80" s="112"/>
       <c r="BE80" s="112"/>
       <c r="BF80" s="112"/>
@@ -14942,8 +15114,9 @@
       <c r="BO80" s="112"/>
       <c r="BP80" s="112"/>
       <c r="BQ80" s="112"/>
-    </row>
-    <row r="81" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR80" s="112"/>
+    </row>
+    <row r="81" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD81" s="112"/>
       <c r="BE81" s="112"/>
       <c r="BF81" s="112"/>
@@ -14958,8 +15131,9 @@
       <c r="BO81" s="112"/>
       <c r="BP81" s="112"/>
       <c r="BQ81" s="112"/>
-    </row>
-    <row r="82" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR81" s="112"/>
+    </row>
+    <row r="82" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD82" s="112"/>
       <c r="BE82" s="112"/>
       <c r="BF82" s="112"/>
@@ -14974,8 +15148,9 @@
       <c r="BO82" s="112"/>
       <c r="BP82" s="112"/>
       <c r="BQ82" s="112"/>
-    </row>
-    <row r="83" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR82" s="112"/>
+    </row>
+    <row r="83" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD83" s="112"/>
       <c r="BE83" s="112"/>
       <c r="BF83" s="112"/>
@@ -14990,8 +15165,9 @@
       <c r="BO83" s="112"/>
       <c r="BP83" s="112"/>
       <c r="BQ83" s="112"/>
-    </row>
-    <row r="84" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR83" s="112"/>
+    </row>
+    <row r="84" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD84" s="112"/>
       <c r="BE84" s="112"/>
       <c r="BF84" s="112"/>
@@ -15006,8 +15182,9 @@
       <c r="BO84" s="112"/>
       <c r="BP84" s="112"/>
       <c r="BQ84" s="112"/>
-    </row>
-    <row r="85" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR84" s="112"/>
+    </row>
+    <row r="85" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD85" s="112"/>
       <c r="BE85" s="112"/>
       <c r="BF85" s="112"/>
@@ -15022,8 +15199,9 @@
       <c r="BO85" s="112"/>
       <c r="BP85" s="112"/>
       <c r="BQ85" s="112"/>
-    </row>
-    <row r="86" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR85" s="112"/>
+    </row>
+    <row r="86" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD86" s="112"/>
       <c r="BE86" s="112"/>
       <c r="BF86" s="112"/>
@@ -15038,8 +15216,9 @@
       <c r="BO86" s="112"/>
       <c r="BP86" s="112"/>
       <c r="BQ86" s="112"/>
-    </row>
-    <row r="87" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR86" s="112"/>
+    </row>
+    <row r="87" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD87" s="112"/>
       <c r="BE87" s="112"/>
       <c r="BF87" s="112"/>
@@ -15054,8 +15233,9 @@
       <c r="BO87" s="112"/>
       <c r="BP87" s="112"/>
       <c r="BQ87" s="112"/>
-    </row>
-    <row r="88" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR87" s="112"/>
+    </row>
+    <row r="88" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD88" s="112"/>
       <c r="BE88" s="112"/>
       <c r="BF88" s="112"/>
@@ -15070,8 +15250,9 @@
       <c r="BO88" s="112"/>
       <c r="BP88" s="112"/>
       <c r="BQ88" s="112"/>
-    </row>
-    <row r="89" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR88" s="112"/>
+    </row>
+    <row r="89" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD89" s="112"/>
       <c r="BE89" s="112"/>
       <c r="BF89" s="112"/>
@@ -15086,8 +15267,9 @@
       <c r="BO89" s="112"/>
       <c r="BP89" s="112"/>
       <c r="BQ89" s="112"/>
-    </row>
-    <row r="90" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR89" s="112"/>
+    </row>
+    <row r="90" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD90" s="112"/>
       <c r="BE90" s="112"/>
       <c r="BF90" s="112"/>
@@ -15102,8 +15284,9 @@
       <c r="BO90" s="112"/>
       <c r="BP90" s="112"/>
       <c r="BQ90" s="112"/>
-    </row>
-    <row r="91" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR90" s="112"/>
+    </row>
+    <row r="91" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD91" s="112"/>
       <c r="BE91" s="112"/>
       <c r="BF91" s="112"/>
@@ -15118,8 +15301,9 @@
       <c r="BO91" s="112"/>
       <c r="BP91" s="112"/>
       <c r="BQ91" s="112"/>
-    </row>
-    <row r="92" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR91" s="112"/>
+    </row>
+    <row r="92" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD92" s="112"/>
       <c r="BE92" s="112"/>
       <c r="BF92" s="112"/>
@@ -15134,8 +15318,9 @@
       <c r="BO92" s="112"/>
       <c r="BP92" s="112"/>
       <c r="BQ92" s="112"/>
-    </row>
-    <row r="93" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR92" s="112"/>
+    </row>
+    <row r="93" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD93" s="112"/>
       <c r="BE93" s="112"/>
       <c r="BF93" s="112"/>
@@ -15150,8 +15335,9 @@
       <c r="BO93" s="112"/>
       <c r="BP93" s="112"/>
       <c r="BQ93" s="112"/>
-    </row>
-    <row r="94" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR93" s="112"/>
+    </row>
+    <row r="94" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD94" s="112"/>
       <c r="BE94" s="112"/>
       <c r="BF94" s="112"/>
@@ -15166,8 +15352,9 @@
       <c r="BO94" s="112"/>
       <c r="BP94" s="112"/>
       <c r="BQ94" s="112"/>
-    </row>
-    <row r="95" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR94" s="112"/>
+    </row>
+    <row r="95" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD95" s="112"/>
       <c r="BE95" s="112"/>
       <c r="BF95" s="112"/>
@@ -15182,8 +15369,9 @@
       <c r="BO95" s="112"/>
       <c r="BP95" s="112"/>
       <c r="BQ95" s="112"/>
-    </row>
-    <row r="96" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR95" s="112"/>
+    </row>
+    <row r="96" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD96" s="112"/>
       <c r="BE96" s="112"/>
       <c r="BF96" s="112"/>
@@ -15198,8 +15386,9 @@
       <c r="BO96" s="112"/>
       <c r="BP96" s="112"/>
       <c r="BQ96" s="112"/>
-    </row>
-    <row r="97" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR96" s="112"/>
+    </row>
+    <row r="97" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD97" s="112"/>
       <c r="BE97" s="112"/>
       <c r="BF97" s="112"/>
@@ -15214,8 +15403,9 @@
       <c r="BO97" s="112"/>
       <c r="BP97" s="112"/>
       <c r="BQ97" s="112"/>
-    </row>
-    <row r="98" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR97" s="112"/>
+    </row>
+    <row r="98" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD98" s="112"/>
       <c r="BE98" s="112"/>
       <c r="BF98" s="112"/>
@@ -15230,8 +15420,9 @@
       <c r="BO98" s="112"/>
       <c r="BP98" s="112"/>
       <c r="BQ98" s="112"/>
-    </row>
-    <row r="99" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR98" s="112"/>
+    </row>
+    <row r="99" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD99" s="112"/>
       <c r="BE99" s="112"/>
       <c r="BF99" s="112"/>
@@ -15246,8 +15437,9 @@
       <c r="BO99" s="112"/>
       <c r="BP99" s="112"/>
       <c r="BQ99" s="112"/>
-    </row>
-    <row r="100" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR99" s="112"/>
+    </row>
+    <row r="100" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD100" s="112"/>
       <c r="BE100" s="112"/>
       <c r="BF100" s="112"/>
@@ -15262,8 +15454,9 @@
       <c r="BO100" s="112"/>
       <c r="BP100" s="112"/>
       <c r="BQ100" s="112"/>
-    </row>
-    <row r="101" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR100" s="112"/>
+    </row>
+    <row r="101" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD101" s="112"/>
       <c r="BE101" s="112"/>
       <c r="BF101" s="112"/>
@@ -15278,8 +15471,9 @@
       <c r="BO101" s="112"/>
       <c r="BP101" s="112"/>
       <c r="BQ101" s="112"/>
-    </row>
-    <row r="102" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR101" s="112"/>
+    </row>
+    <row r="102" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD102" s="112"/>
       <c r="BE102" s="112"/>
       <c r="BF102" s="112"/>
@@ -15294,8 +15488,9 @@
       <c r="BO102" s="112"/>
       <c r="BP102" s="112"/>
       <c r="BQ102" s="112"/>
-    </row>
-    <row r="103" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR102" s="112"/>
+    </row>
+    <row r="103" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD103" s="112"/>
       <c r="BE103" s="112"/>
       <c r="BF103" s="112"/>
@@ -15310,8 +15505,9 @@
       <c r="BO103" s="112"/>
       <c r="BP103" s="112"/>
       <c r="BQ103" s="112"/>
-    </row>
-    <row r="104" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR103" s="112"/>
+    </row>
+    <row r="104" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD104" s="112"/>
       <c r="BE104" s="112"/>
       <c r="BF104" s="112"/>
@@ -15326,8 +15522,9 @@
       <c r="BO104" s="112"/>
       <c r="BP104" s="112"/>
       <c r="BQ104" s="112"/>
-    </row>
-    <row r="105" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR104" s="112"/>
+    </row>
+    <row r="105" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD105" s="112"/>
       <c r="BE105" s="112"/>
       <c r="BF105" s="112"/>
@@ -15342,8 +15539,9 @@
       <c r="BO105" s="112"/>
       <c r="BP105" s="112"/>
       <c r="BQ105" s="112"/>
-    </row>
-    <row r="106" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR105" s="112"/>
+    </row>
+    <row r="106" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD106" s="112"/>
       <c r="BE106" s="112"/>
       <c r="BF106" s="112"/>
@@ -15358,8 +15556,9 @@
       <c r="BO106" s="112"/>
       <c r="BP106" s="112"/>
       <c r="BQ106" s="112"/>
-    </row>
-    <row r="107" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR106" s="112"/>
+    </row>
+    <row r="107" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD107" s="112"/>
       <c r="BE107" s="112"/>
       <c r="BF107" s="112"/>
@@ -15374,8 +15573,9 @@
       <c r="BO107" s="112"/>
       <c r="BP107" s="112"/>
       <c r="BQ107" s="112"/>
-    </row>
-    <row r="108" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR107" s="112"/>
+    </row>
+    <row r="108" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD108" s="112"/>
       <c r="BE108" s="112"/>
       <c r="BF108" s="112"/>
@@ -15390,8 +15590,9 @@
       <c r="BO108" s="112"/>
       <c r="BP108" s="112"/>
       <c r="BQ108" s="112"/>
-    </row>
-    <row r="109" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR108" s="112"/>
+    </row>
+    <row r="109" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD109" s="112"/>
       <c r="BE109" s="112"/>
       <c r="BF109" s="112"/>
@@ -15406,8 +15607,9 @@
       <c r="BO109" s="112"/>
       <c r="BP109" s="112"/>
       <c r="BQ109" s="112"/>
-    </row>
-    <row r="110" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR109" s="112"/>
+    </row>
+    <row r="110" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD110" s="112"/>
       <c r="BE110" s="112"/>
       <c r="BF110" s="112"/>
@@ -15422,8 +15624,9 @@
       <c r="BO110" s="112"/>
       <c r="BP110" s="112"/>
       <c r="BQ110" s="112"/>
-    </row>
-    <row r="111" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR110" s="112"/>
+    </row>
+    <row r="111" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD111" s="112"/>
       <c r="BE111" s="112"/>
       <c r="BF111" s="112"/>
@@ -15438,8 +15641,9 @@
       <c r="BO111" s="112"/>
       <c r="BP111" s="112"/>
       <c r="BQ111" s="112"/>
-    </row>
-    <row r="112" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR111" s="112"/>
+    </row>
+    <row r="112" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD112" s="112"/>
       <c r="BE112" s="112"/>
       <c r="BF112" s="112"/>
@@ -15454,8 +15658,9 @@
       <c r="BO112" s="112"/>
       <c r="BP112" s="112"/>
       <c r="BQ112" s="112"/>
-    </row>
-    <row r="113" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR112" s="112"/>
+    </row>
+    <row r="113" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD113" s="112"/>
       <c r="BE113" s="112"/>
       <c r="BF113" s="112"/>
@@ -15470,8 +15675,9 @@
       <c r="BO113" s="112"/>
       <c r="BP113" s="112"/>
       <c r="BQ113" s="112"/>
-    </row>
-    <row r="114" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR113" s="112"/>
+    </row>
+    <row r="114" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD114" s="112"/>
       <c r="BE114" s="112"/>
       <c r="BF114" s="112"/>
@@ -15486,8 +15692,9 @@
       <c r="BO114" s="112"/>
       <c r="BP114" s="112"/>
       <c r="BQ114" s="112"/>
-    </row>
-    <row r="115" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR114" s="112"/>
+    </row>
+    <row r="115" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD115" s="112"/>
       <c r="BE115" s="112"/>
       <c r="BF115" s="112"/>
@@ -15502,8 +15709,9 @@
       <c r="BO115" s="112"/>
       <c r="BP115" s="112"/>
       <c r="BQ115" s="112"/>
-    </row>
-    <row r="116" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR115" s="112"/>
+    </row>
+    <row r="116" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD116" s="112"/>
       <c r="BE116" s="112"/>
       <c r="BF116" s="112"/>
@@ -15518,8 +15726,9 @@
       <c r="BO116" s="112"/>
       <c r="BP116" s="112"/>
       <c r="BQ116" s="112"/>
-    </row>
-    <row r="117" spans="56:69" x14ac:dyDescent="0.2">
+      <c r="BR116" s="112"/>
+    </row>
+    <row r="117" spans="56:70" x14ac:dyDescent="0.2">
       <c r="BD117" s="112"/>
       <c r="BE117" s="112"/>
       <c r="BF117" s="112"/>
@@ -15534,10 +15743,11 @@
       <c r="BO117" s="112"/>
       <c r="BP117" s="112"/>
       <c r="BQ117" s="112"/>
+      <c r="BR117" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="BP5:BQ5"/>
+    <mergeCell ref="BP5:BR5"/>
     <mergeCell ref="BL5:BO5"/>
     <mergeCell ref="BH5:BK5"/>
     <mergeCell ref="B3:F3"/>
